--- a/test/PySSBWE_Report_test_performances_white_noise.xlsx
+++ b/test/PySSBWE_Report_test_performances_white_noise.xlsx
@@ -496,7 +496,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="C4" t="n">
         <v>100</v>
@@ -655,7 +655,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.005133745491463059</v>
+        <v>0.005149652958594186</v>
       </c>
       <c r="C4" t="n">
         <v>0.004862633775597517</v>
@@ -814,7 +814,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>-6.735307847374293</v>
+        <v>-6.620246088856059</v>
       </c>
       <c r="C4" t="n">
         <v>-3.153601444956471</v>
@@ -973,7 +973,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>13.18296668717556</v>
+        <v>13.4216449818085</v>
       </c>
       <c r="C4" t="n">
         <v>6.87977630844123</v>
@@ -1132,7 +1132,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>-7.370170324631791</v>
+        <v>-7.244082523008549</v>
       </c>
       <c r="C4" t="n">
         <v>-3.223645443621228</v>
@@ -1291,7 +1291,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>13.33682951498102</v>
+        <v>13.62376233002742</v>
       </c>
       <c r="C4" t="n">
         <v>6.744046681772525</v>
@@ -1450,7 +1450,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.005164934570260693</v>
+        <v>0.005111816370211811</v>
       </c>
       <c r="C4" t="n">
         <v>-3.321278323122409e-05</v>
@@ -1609,7 +1609,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.005020934386825597</v>
+        <v>0.005064691840527618</v>
       </c>
       <c r="C4" t="n">
         <v>0.004894357363388368</v>
@@ -1768,7 +1768,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.725900377210698</v>
+        <v>-2.425717612959285</v>
       </c>
       <c r="C4" t="n">
         <v>0.5556165432952367</v>
@@ -1927,7 +1927,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>14.01989568558669</v>
+        <v>14.62152509368644</v>
       </c>
       <c r="C4" t="n">
         <v>7.13182031801944</v>
@@ -2086,7 +2086,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>-3.311766473065328</v>
+        <v>-3.008500820176344</v>
       </c>
       <c r="C4" t="n">
         <v>0.5144564737362513</v>
@@ -2245,7 +2245,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>14.23934476471844</v>
+        <v>14.85535583866629</v>
       </c>
       <c r="C4" t="n">
         <v>6.975731824663822</v>
@@ -2404,7 +2404,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="C4" t="n">
         <v>100</v>
@@ -2563,7 +2563,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.005836746931016052</v>
+        <v>0.005815927374713987</v>
       </c>
       <c r="C4" t="n">
         <v>-0.0001461362462174229</v>
